--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H2">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I2">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J2">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>1.712614553752</v>
+        <v>0.2398347267416667</v>
       </c>
       <c r="R2">
-        <v>15.413530983768</v>
+        <v>2.158512540675</v>
       </c>
       <c r="S2">
-        <v>0.007887456676255129</v>
+        <v>0.004651211420644677</v>
       </c>
       <c r="T2">
-        <v>0.007887456676255129</v>
+        <v>0.004651211420644677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H3">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I3">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J3">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>4.207132878987556</v>
+        <v>3.576443427046667</v>
       </c>
       <c r="R3">
-        <v>37.864195910888</v>
+        <v>32.18799084342</v>
       </c>
       <c r="S3">
-        <v>0.01937597589694903</v>
+        <v>0.06935940736842039</v>
       </c>
       <c r="T3">
-        <v>0.01937597589694903</v>
+        <v>0.06935940736842039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H4">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I4">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J4">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>2.156896734502</v>
+        <v>1.357590947825</v>
       </c>
       <c r="R4">
-        <v>19.412070610518</v>
+        <v>12.218318530425</v>
       </c>
       <c r="S4">
-        <v>0.009933600944398036</v>
+        <v>0.02632830785964099</v>
       </c>
       <c r="T4">
-        <v>0.009933600944398036</v>
+        <v>0.02632830785964099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H5">
         <v>1.166438</v>
       </c>
       <c r="I5">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J5">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>6.429252286183999</v>
+        <v>1.059126352021111</v>
       </c>
       <c r="R5">
-        <v>57.86327057565599</v>
+        <v>9.532137168190001</v>
       </c>
       <c r="S5">
-        <v>0.02960996025456748</v>
+        <v>0.02054006378205818</v>
       </c>
       <c r="T5">
-        <v>0.02960996025456748</v>
+        <v>0.02054006378205818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H6">
         <v>1.166438</v>
       </c>
       <c r="I6">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J6">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>15.79381573118845</v>
@@ -818,10 +818,10 @@
         <v>142.144341580696</v>
       </c>
       <c r="S6">
-        <v>0.07273851378851749</v>
+        <v>0.3062958275578986</v>
       </c>
       <c r="T6">
-        <v>0.07273851378851749</v>
+        <v>0.3062958275578986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H7">
         <v>1.166438</v>
       </c>
       <c r="I7">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J7">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>8.097112821433999</v>
+        <v>5.995213318943334</v>
       </c>
       <c r="R7">
-        <v>72.87401539290599</v>
+        <v>53.95691987049</v>
       </c>
       <c r="S7">
-        <v>0.03729130202817303</v>
+        <v>0.1162675857541936</v>
       </c>
       <c r="T7">
-        <v>0.03729130202817303</v>
+        <v>0.1162675857541936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H8">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I8">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J8">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>37.899830354588</v>
+        <v>1.091285007697222</v>
       </c>
       <c r="R8">
-        <v>341.098473191292</v>
+        <v>9.821565069275001</v>
       </c>
       <c r="S8">
-        <v>0.1745478977183326</v>
+        <v>0.02116372953966308</v>
       </c>
       <c r="T8">
-        <v>0.1745478977183326</v>
+        <v>0.02116372953966308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H9">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I9">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J9">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>93.10304063661914</v>
+        <v>16.27336935662889</v>
       </c>
       <c r="R9">
-        <v>837.9273657295722</v>
+        <v>146.46032420966</v>
       </c>
       <c r="S9">
-        <v>0.4287866162529956</v>
+        <v>0.3155960040993162</v>
       </c>
       <c r="T9">
-        <v>0.4287866162529956</v>
+        <v>0.3155960040993162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H10">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I10">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J10">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>47.73170947946301</v>
+        <v>6.177248257891667</v>
       </c>
       <c r="R10">
-        <v>429.5853853151671</v>
+        <v>55.595234321025</v>
       </c>
       <c r="S10">
-        <v>0.2198286764398116</v>
+        <v>0.1197978626181643</v>
       </c>
       <c r="T10">
-        <v>0.2198286764398116</v>
+        <v>0.1197978626181643</v>
       </c>
     </row>
   </sheetData>
